--- a/xlsx/克羅埃西亞_intext.xlsx
+++ b/xlsx/克羅埃西亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2160">
   <si>
     <t>克羅埃西亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>克罗地亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_克羅埃西亞</t>
+    <t>体育运动_体育运动_南非_克羅埃西亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
@@ -4256,10 +4256,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -4370,10 +4394,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -4382,6 +4406,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -4472,18 +4502,18 @@
     <t>賽普勒斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -4502,10 +4532,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -4562,16 +4592,22 @@
     <t>色雷斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -6807,7 +6843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1162"/>
+  <dimension ref="A1:I1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7615,7 +7651,7 @@
         <v>54</v>
       </c>
       <c r="G28" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -14865,7 +14901,7 @@
         <v>540</v>
       </c>
       <c r="G278" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -15416,7 +15452,7 @@
         <v>574</v>
       </c>
       <c r="G297" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -28118,7 +28154,7 @@
         <v>1404</v>
       </c>
       <c r="G735" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H735" t="s">
         <v>4</v>
@@ -28263,7 +28299,7 @@
         <v>1414</v>
       </c>
       <c r="G740" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H740" t="s">
         <v>4</v>
@@ -28292,7 +28328,7 @@
         <v>1416</v>
       </c>
       <c r="G741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H741" t="s">
         <v>4</v>
@@ -28321,7 +28357,7 @@
         <v>1418</v>
       </c>
       <c r="G742" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H742" t="s">
         <v>4</v>
@@ -28350,7 +28386,7 @@
         <v>1420</v>
       </c>
       <c r="G743" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -28379,7 +28415,7 @@
         <v>1422</v>
       </c>
       <c r="G744" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H744" t="s">
         <v>4</v>
@@ -28437,7 +28473,7 @@
         <v>1426</v>
       </c>
       <c r="G746" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H746" t="s">
         <v>4</v>
@@ -28466,7 +28502,7 @@
         <v>1428</v>
       </c>
       <c r="G747" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H747" t="s">
         <v>4</v>
@@ -28495,7 +28531,7 @@
         <v>1430</v>
       </c>
       <c r="G748" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -28553,7 +28589,7 @@
         <v>1434</v>
       </c>
       <c r="G750" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -28582,7 +28618,7 @@
         <v>1436</v>
       </c>
       <c r="G751" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H751" t="s">
         <v>4</v>
@@ -28611,7 +28647,7 @@
         <v>1438</v>
       </c>
       <c r="G752" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -28640,7 +28676,7 @@
         <v>1440</v>
       </c>
       <c r="G753" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H753" t="s">
         <v>4</v>
@@ -28669,7 +28705,7 @@
         <v>1442</v>
       </c>
       <c r="G754" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H754" t="s">
         <v>4</v>
@@ -28698,7 +28734,7 @@
         <v>1444</v>
       </c>
       <c r="G755" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H755" t="s">
         <v>4</v>
@@ -28727,7 +28763,7 @@
         <v>1446</v>
       </c>
       <c r="G756" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -28756,7 +28792,7 @@
         <v>1448</v>
       </c>
       <c r="G757" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H757" t="s">
         <v>4</v>
@@ -28785,7 +28821,7 @@
         <v>1450</v>
       </c>
       <c r="G758" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -28814,7 +28850,7 @@
         <v>1452</v>
       </c>
       <c r="G759" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H759" t="s">
         <v>4</v>
@@ -28843,7 +28879,7 @@
         <v>1454</v>
       </c>
       <c r="G760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -28872,7 +28908,7 @@
         <v>1456</v>
       </c>
       <c r="G761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -28901,7 +28937,7 @@
         <v>1458</v>
       </c>
       <c r="G762" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H762" t="s">
         <v>4</v>
@@ -28930,7 +28966,7 @@
         <v>1460</v>
       </c>
       <c r="G763" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H763" t="s">
         <v>4</v>
@@ -28959,7 +28995,7 @@
         <v>1462</v>
       </c>
       <c r="G764" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -28988,7 +29024,7 @@
         <v>1464</v>
       </c>
       <c r="G765" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H765" t="s">
         <v>4</v>
@@ -29040,13 +29076,13 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>577</v>
+        <v>1467</v>
       </c>
       <c r="F767" t="s">
-        <v>578</v>
+        <v>1468</v>
       </c>
       <c r="G767" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H767" t="s">
         <v>4</v>
@@ -29069,13 +29105,13 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F768" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="G768" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H768" t="s">
         <v>4</v>
@@ -29098,10 +29134,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="F769" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="G769" t="n">
         <v>5</v>
@@ -29127,10 +29163,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="F770" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="G770" t="n">
         <v>3</v>
@@ -29156,13 +29192,13 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="F771" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="G771" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H771" t="s">
         <v>4</v>
@@ -29185,13 +29221,13 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1475</v>
+        <v>577</v>
       </c>
       <c r="F772" t="s">
-        <v>1476</v>
+        <v>578</v>
       </c>
       <c r="G772" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H772" t="s">
         <v>4</v>
@@ -29220,7 +29256,7 @@
         <v>1478</v>
       </c>
       <c r="G773" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H773" t="s">
         <v>4</v>
@@ -29249,7 +29285,7 @@
         <v>1480</v>
       </c>
       <c r="G774" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -29278,7 +29314,7 @@
         <v>1482</v>
       </c>
       <c r="G775" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H775" t="s">
         <v>4</v>
@@ -29307,7 +29343,7 @@
         <v>1484</v>
       </c>
       <c r="G776" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H776" t="s">
         <v>4</v>
@@ -29336,7 +29372,7 @@
         <v>1486</v>
       </c>
       <c r="G777" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H777" t="s">
         <v>4</v>
@@ -29365,7 +29401,7 @@
         <v>1488</v>
       </c>
       <c r="G778" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H778" t="s">
         <v>4</v>
@@ -29423,7 +29459,7 @@
         <v>1492</v>
       </c>
       <c r="G780" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -29452,7 +29488,7 @@
         <v>1494</v>
       </c>
       <c r="G781" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H781" t="s">
         <v>4</v>
@@ -29481,7 +29517,7 @@
         <v>1496</v>
       </c>
       <c r="G782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -29510,7 +29546,7 @@
         <v>1498</v>
       </c>
       <c r="G783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H783" t="s">
         <v>4</v>
@@ -29568,7 +29604,7 @@
         <v>1502</v>
       </c>
       <c r="G785" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -29597,7 +29633,7 @@
         <v>1504</v>
       </c>
       <c r="G786" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -29655,7 +29691,7 @@
         <v>1508</v>
       </c>
       <c r="G788" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -29771,7 +29807,7 @@
         <v>1516</v>
       </c>
       <c r="G792" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -29858,7 +29894,7 @@
         <v>1522</v>
       </c>
       <c r="G795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -29945,7 +29981,7 @@
         <v>1528</v>
       </c>
       <c r="G798" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -30032,7 +30068,7 @@
         <v>1534</v>
       </c>
       <c r="G801" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -30061,7 +30097,7 @@
         <v>1536</v>
       </c>
       <c r="G802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H802" t="s">
         <v>4</v>
@@ -30142,13 +30178,13 @@
         <v>804</v>
       </c>
       <c r="E805" t="s">
-        <v>1409</v>
+        <v>1541</v>
       </c>
       <c r="F805" t="s">
-        <v>1410</v>
+        <v>1542</v>
       </c>
       <c r="G805" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -30171,13 +30207,13 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="F806" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G806" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H806" t="s">
         <v>4</v>
@@ -30200,10 +30236,10 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="F807" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="G807" t="n">
         <v>1</v>
@@ -30229,13 +30265,13 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="F808" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="G808" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H808" t="s">
         <v>4</v>
@@ -30258,13 +30294,13 @@
         <v>808</v>
       </c>
       <c r="E809" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="F809" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="G809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H809" t="s">
         <v>4</v>
@@ -30287,10 +30323,10 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="F810" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -30316,13 +30352,13 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>1551</v>
+        <v>1409</v>
       </c>
       <c r="F811" t="s">
-        <v>1552</v>
+        <v>1410</v>
       </c>
       <c r="G811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H811" t="s">
         <v>4</v>
@@ -30351,7 +30387,7 @@
         <v>1554</v>
       </c>
       <c r="G812" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H812" t="s">
         <v>4</v>
@@ -30374,13 +30410,13 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>1467</v>
+        <v>1555</v>
       </c>
       <c r="F813" t="s">
-        <v>1468</v>
+        <v>1556</v>
       </c>
       <c r="G813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -30403,13 +30439,13 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="F814" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="G814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -30432,13 +30468,13 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>575</v>
+        <v>1559</v>
       </c>
       <c r="F815" t="s">
-        <v>576</v>
+        <v>1560</v>
       </c>
       <c r="G815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -30461,13 +30497,13 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="F816" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="G816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H816" t="s">
         <v>4</v>
@@ -30490,10 +30526,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="F817" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -30519,13 +30555,13 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>103</v>
+        <v>1565</v>
       </c>
       <c r="F818" t="s">
-        <v>104</v>
+        <v>1566</v>
       </c>
       <c r="G818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -30548,13 +30584,13 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>1561</v>
+        <v>1477</v>
       </c>
       <c r="F819" t="s">
-        <v>1562</v>
+        <v>1478</v>
       </c>
       <c r="G819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -30577,10 +30613,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="F820" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="G820" t="n">
         <v>2</v>
@@ -30606,10 +30642,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1565</v>
+        <v>575</v>
       </c>
       <c r="F821" t="s">
-        <v>1566</v>
+        <v>576</v>
       </c>
       <c r="G821" t="n">
         <v>2</v>
@@ -30635,10 +30671,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="F822" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="G822" t="n">
         <v>2</v>
@@ -30664,10 +30700,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>297</v>
+        <v>1571</v>
       </c>
       <c r="F823" t="s">
-        <v>298</v>
+        <v>1572</v>
       </c>
       <c r="G823" t="n">
         <v>1</v>
@@ -30693,10 +30729,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1569</v>
+        <v>103</v>
       </c>
       <c r="F824" t="s">
-        <v>1570</v>
+        <v>104</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -30722,13 +30758,13 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="F825" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="G825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H825" t="s">
         <v>4</v>
@@ -30751,13 +30787,13 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="F826" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="G826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -30780,10 +30816,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1483</v>
+        <v>1577</v>
       </c>
       <c r="F827" t="s">
-        <v>1484</v>
+        <v>1578</v>
       </c>
       <c r="G827" t="n">
         <v>2</v>
@@ -30809,10 +30845,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="F828" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="G828" t="n">
         <v>2</v>
@@ -30838,13 +30874,13 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1577</v>
+        <v>297</v>
       </c>
       <c r="F829" t="s">
-        <v>1578</v>
+        <v>298</v>
       </c>
       <c r="G829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H829" t="s">
         <v>4</v>
@@ -30867,13 +30903,13 @@
         <v>829</v>
       </c>
       <c r="E830" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="F830" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="G830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H830" t="s">
         <v>4</v>
@@ -30896,10 +30932,10 @@
         <v>830</v>
       </c>
       <c r="E831" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="F831" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
@@ -30925,13 +30961,13 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="F832" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="G832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H832" t="s">
         <v>4</v>
@@ -30954,10 +30990,10 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1583</v>
+        <v>1493</v>
       </c>
       <c r="F833" t="s">
-        <v>1584</v>
+        <v>1494</v>
       </c>
       <c r="G833" t="n">
         <v>2</v>
@@ -30983,10 +31019,10 @@
         <v>833</v>
       </c>
       <c r="E834" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="F834" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="G834" t="n">
         <v>2</v>
@@ -31012,10 +31048,10 @@
         <v>834</v>
       </c>
       <c r="E835" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="F835" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="G835" t="n">
         <v>2</v>
@@ -31047,7 +31083,7 @@
         <v>1590</v>
       </c>
       <c r="G836" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H836" t="s">
         <v>4</v>
@@ -31076,7 +31112,7 @@
         <v>1592</v>
       </c>
       <c r="G837" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H837" t="s">
         <v>4</v>
@@ -31134,7 +31170,7 @@
         <v>1596</v>
       </c>
       <c r="G839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H839" t="s">
         <v>4</v>
@@ -31163,7 +31199,7 @@
         <v>1598</v>
       </c>
       <c r="G840" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H840" t="s">
         <v>4</v>
@@ -31192,7 +31228,7 @@
         <v>1600</v>
       </c>
       <c r="G841" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -31244,13 +31280,13 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1497</v>
+        <v>1603</v>
       </c>
       <c r="F843" t="s">
-        <v>1498</v>
+        <v>1604</v>
       </c>
       <c r="G843" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H843" t="s">
         <v>4</v>
@@ -31273,13 +31309,13 @@
         <v>843</v>
       </c>
       <c r="E844" t="s">
-        <v>1497</v>
+        <v>1605</v>
       </c>
       <c r="F844" t="s">
-        <v>1498</v>
+        <v>1606</v>
       </c>
       <c r="G844" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H844" t="s">
         <v>4</v>
@@ -31302,13 +31338,13 @@
         <v>844</v>
       </c>
       <c r="E845" t="s">
-        <v>1577</v>
+        <v>1607</v>
       </c>
       <c r="F845" t="s">
-        <v>1578</v>
+        <v>1608</v>
       </c>
       <c r="G845" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H845" t="s">
         <v>4</v>
@@ -31331,13 +31367,13 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1577</v>
+        <v>1609</v>
       </c>
       <c r="F846" t="s">
-        <v>1578</v>
+        <v>1610</v>
       </c>
       <c r="G846" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H846" t="s">
         <v>4</v>
@@ -31360,10 +31396,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1603</v>
+        <v>1611</v>
       </c>
       <c r="F847" t="s">
-        <v>1604</v>
+        <v>1612</v>
       </c>
       <c r="G847" t="n">
         <v>1</v>
@@ -31389,10 +31425,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1581</v>
+        <v>1613</v>
       </c>
       <c r="F848" t="s">
-        <v>1582</v>
+        <v>1614</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -31418,13 +31454,13 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1583</v>
+        <v>1507</v>
       </c>
       <c r="F849" t="s">
-        <v>1584</v>
+        <v>1508</v>
       </c>
       <c r="G849" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H849" t="s">
         <v>4</v>
@@ -31447,10 +31483,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1605</v>
+        <v>1507</v>
       </c>
       <c r="F850" t="s">
-        <v>1606</v>
+        <v>1508</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -31476,10 +31512,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="F851" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -31505,10 +31541,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="F852" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -31534,10 +31570,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1467</v>
+        <v>1615</v>
       </c>
       <c r="F853" t="s">
-        <v>1468</v>
+        <v>1616</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -31563,10 +31599,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>577</v>
+        <v>1593</v>
       </c>
       <c r="F854" t="s">
-        <v>578</v>
+        <v>1594</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -31592,10 +31628,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>575</v>
+        <v>1595</v>
       </c>
       <c r="F855" t="s">
-        <v>576</v>
+        <v>1596</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -31621,10 +31657,10 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1557</v>
+        <v>1617</v>
       </c>
       <c r="F856" t="s">
-        <v>1558</v>
+        <v>1618</v>
       </c>
       <c r="G856" t="n">
         <v>1</v>
@@ -31650,10 +31686,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1409</v>
+        <v>1597</v>
       </c>
       <c r="F857" t="s">
-        <v>1410</v>
+        <v>1598</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -31679,10 +31715,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1535</v>
+        <v>1599</v>
       </c>
       <c r="F858" t="s">
-        <v>1536</v>
+        <v>1600</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -31708,10 +31744,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1607</v>
+        <v>1477</v>
       </c>
       <c r="F859" t="s">
-        <v>1608</v>
+        <v>1478</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -31737,10 +31773,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1563</v>
+        <v>577</v>
       </c>
       <c r="F860" t="s">
-        <v>1564</v>
+        <v>578</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -31766,10 +31802,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1565</v>
+        <v>575</v>
       </c>
       <c r="F861" t="s">
-        <v>1566</v>
+        <v>576</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -31795,10 +31831,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="F862" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -31824,13 +31860,13 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1609</v>
+        <v>1409</v>
       </c>
       <c r="F863" t="s">
-        <v>1610</v>
+        <v>1410</v>
       </c>
       <c r="G863" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H863" t="s">
         <v>4</v>
@@ -31853,13 +31889,13 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1611</v>
+        <v>1547</v>
       </c>
       <c r="F864" t="s">
-        <v>1612</v>
+        <v>1548</v>
       </c>
       <c r="G864" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H864" t="s">
         <v>4</v>
@@ -31882,10 +31918,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="F865" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -31911,13 +31947,13 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>1615</v>
+        <v>1575</v>
       </c>
       <c r="F866" t="s">
-        <v>1616</v>
+        <v>1576</v>
       </c>
       <c r="G866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H866" t="s">
         <v>4</v>
@@ -31940,10 +31976,10 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1617</v>
+        <v>1577</v>
       </c>
       <c r="F867" t="s">
-        <v>1618</v>
+        <v>1578</v>
       </c>
       <c r="G867" t="n">
         <v>1</v>
@@ -31969,10 +32005,10 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1619</v>
+        <v>1579</v>
       </c>
       <c r="F868" t="s">
-        <v>1620</v>
+        <v>1580</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
@@ -32004,7 +32040,7 @@
         <v>1622</v>
       </c>
       <c r="G869" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H869" t="s">
         <v>4</v>
@@ -32033,7 +32069,7 @@
         <v>1624</v>
       </c>
       <c r="G870" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H870" t="s">
         <v>4</v>
@@ -32091,7 +32127,7 @@
         <v>1628</v>
       </c>
       <c r="G872" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H872" t="s">
         <v>4</v>
@@ -32120,7 +32156,7 @@
         <v>1630</v>
       </c>
       <c r="G873" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H873" t="s">
         <v>4</v>
@@ -32294,7 +32330,7 @@
         <v>1642</v>
       </c>
       <c r="G879" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H879" t="s">
         <v>4</v>
@@ -32352,7 +32388,7 @@
         <v>1646</v>
       </c>
       <c r="G881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H881" t="s">
         <v>4</v>
@@ -32381,7 +32417,7 @@
         <v>1648</v>
       </c>
       <c r="G882" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H882" t="s">
         <v>4</v>
@@ -32404,13 +32440,13 @@
         <v>882</v>
       </c>
       <c r="E883" t="s">
-        <v>1411</v>
+        <v>1649</v>
       </c>
       <c r="F883" t="s">
-        <v>1412</v>
+        <v>1650</v>
       </c>
       <c r="G883" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H883" t="s">
         <v>4</v>
@@ -32433,13 +32469,13 @@
         <v>883</v>
       </c>
       <c r="E884" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="F884" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="G884" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H884" t="s">
         <v>4</v>
@@ -32462,13 +32498,13 @@
         <v>884</v>
       </c>
       <c r="E885" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="F885" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="G885" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H885" t="s">
         <v>4</v>
@@ -32491,10 +32527,10 @@
         <v>885</v>
       </c>
       <c r="E886" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="F886" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="G886" t="n">
         <v>1</v>
@@ -32520,13 +32556,13 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1611</v>
+        <v>1657</v>
       </c>
       <c r="F887" t="s">
-        <v>1612</v>
+        <v>1658</v>
       </c>
       <c r="G887" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H887" t="s">
         <v>4</v>
@@ -32549,13 +32585,13 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="F888" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="G888" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H888" t="s">
         <v>4</v>
@@ -32578,13 +32614,13 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1657</v>
+        <v>1411</v>
       </c>
       <c r="F889" t="s">
-        <v>1658</v>
+        <v>1412</v>
       </c>
       <c r="G889" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H889" t="s">
         <v>4</v>
@@ -32607,13 +32643,13 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="F890" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="G890" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H890" t="s">
         <v>4</v>
@@ -32636,13 +32672,13 @@
         <v>890</v>
       </c>
       <c r="E891" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="F891" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="G891" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H891" t="s">
         <v>4</v>
@@ -32665,13 +32701,13 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="F892" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="G892" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H892" t="s">
         <v>4</v>
@@ -32694,13 +32730,13 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1665</v>
+        <v>1623</v>
       </c>
       <c r="F893" t="s">
-        <v>1666</v>
+        <v>1624</v>
       </c>
       <c r="G893" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H893" t="s">
         <v>4</v>
@@ -32723,10 +32759,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1615</v>
+        <v>1667</v>
       </c>
       <c r="F894" t="s">
-        <v>1616</v>
+        <v>1668</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -32752,13 +32788,13 @@
         <v>894</v>
       </c>
       <c r="E895" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="F895" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="G895" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H895" t="s">
         <v>4</v>
@@ -32781,13 +32817,13 @@
         <v>895</v>
       </c>
       <c r="E896" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="F896" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="G896" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H896" t="s">
         <v>4</v>
@@ -32810,13 +32846,13 @@
         <v>896</v>
       </c>
       <c r="E897" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="F897" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="G897" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H897" t="s">
         <v>4</v>
@@ -32839,13 +32875,13 @@
         <v>897</v>
       </c>
       <c r="E898" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="F898" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="G898" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H898" t="s">
         <v>4</v>
@@ -32868,13 +32904,13 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="F899" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="G899" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H899" t="s">
         <v>4</v>
@@ -32897,13 +32933,13 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>1677</v>
+        <v>1627</v>
       </c>
       <c r="F900" t="s">
-        <v>1678</v>
+        <v>1628</v>
       </c>
       <c r="G900" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H900" t="s">
         <v>4</v>
@@ -32932,7 +32968,7 @@
         <v>1680</v>
       </c>
       <c r="G901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H901" t="s">
         <v>4</v>
@@ -32961,7 +32997,7 @@
         <v>1682</v>
       </c>
       <c r="G902" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H902" t="s">
         <v>4</v>
@@ -32990,7 +33026,7 @@
         <v>1684</v>
       </c>
       <c r="G903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H903" t="s">
         <v>4</v>
@@ -33019,7 +33055,7 @@
         <v>1686</v>
       </c>
       <c r="G904" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H904" t="s">
         <v>4</v>
@@ -33042,13 +33078,13 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>1573</v>
+        <v>1687</v>
       </c>
       <c r="F905" t="s">
-        <v>1574</v>
+        <v>1688</v>
       </c>
       <c r="G905" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H905" t="s">
         <v>4</v>
@@ -33071,13 +33107,13 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1583</v>
+        <v>1689</v>
       </c>
       <c r="F906" t="s">
-        <v>1584</v>
+        <v>1690</v>
       </c>
       <c r="G906" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H906" t="s">
         <v>4</v>
@@ -33100,10 +33136,10 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="F907" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="G907" t="n">
         <v>3</v>
@@ -33129,13 +33165,13 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1467</v>
+        <v>1693</v>
       </c>
       <c r="F908" t="s">
-        <v>1468</v>
+        <v>1694</v>
       </c>
       <c r="G908" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H908" t="s">
         <v>4</v>
@@ -33158,13 +33194,13 @@
         <v>908</v>
       </c>
       <c r="E909" t="s">
-        <v>1581</v>
+        <v>1695</v>
       </c>
       <c r="F909" t="s">
-        <v>1582</v>
+        <v>1696</v>
       </c>
       <c r="G909" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H909" t="s">
         <v>4</v>
@@ -33187,13 +33223,13 @@
         <v>909</v>
       </c>
       <c r="E910" t="s">
-        <v>1593</v>
+        <v>1697</v>
       </c>
       <c r="F910" t="s">
-        <v>1594</v>
+        <v>1698</v>
       </c>
       <c r="G910" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H910" t="s">
         <v>4</v>
@@ -33216,13 +33252,13 @@
         <v>910</v>
       </c>
       <c r="E911" t="s">
-        <v>1689</v>
+        <v>1585</v>
       </c>
       <c r="F911" t="s">
-        <v>1690</v>
+        <v>1586</v>
       </c>
       <c r="G911" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -33245,10 +33281,10 @@
         <v>911</v>
       </c>
       <c r="E912" t="s">
-        <v>1691</v>
+        <v>1595</v>
       </c>
       <c r="F912" t="s">
-        <v>1692</v>
+        <v>1596</v>
       </c>
       <c r="G912" t="n">
         <v>2</v>
@@ -33274,13 +33310,13 @@
         <v>912</v>
       </c>
       <c r="E913" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
       <c r="F913" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="G913" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H913" t="s">
         <v>4</v>
@@ -33303,13 +33339,13 @@
         <v>913</v>
       </c>
       <c r="E914" t="s">
-        <v>1695</v>
+        <v>1477</v>
       </c>
       <c r="F914" t="s">
-        <v>1696</v>
+        <v>1478</v>
       </c>
       <c r="G914" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H914" t="s">
         <v>4</v>
@@ -33332,13 +33368,13 @@
         <v>914</v>
       </c>
       <c r="E915" t="s">
-        <v>1697</v>
+        <v>1593</v>
       </c>
       <c r="F915" t="s">
-        <v>1698</v>
+        <v>1594</v>
       </c>
       <c r="G915" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H915" t="s">
         <v>4</v>
@@ -33361,10 +33397,10 @@
         <v>915</v>
       </c>
       <c r="E916" t="s">
-        <v>1699</v>
+        <v>1605</v>
       </c>
       <c r="F916" t="s">
-        <v>1700</v>
+        <v>1606</v>
       </c>
       <c r="G916" t="n">
         <v>1</v>
@@ -33425,7 +33461,7 @@
         <v>1704</v>
       </c>
       <c r="G918" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -33541,7 +33577,7 @@
         <v>1712</v>
       </c>
       <c r="G922" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H922" t="s">
         <v>4</v>
@@ -33599,7 +33635,7 @@
         <v>1716</v>
       </c>
       <c r="G924" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -33622,13 +33658,13 @@
         <v>924</v>
       </c>
       <c r="E925" t="s">
-        <v>907</v>
+        <v>1717</v>
       </c>
       <c r="F925" t="s">
-        <v>908</v>
+        <v>1718</v>
       </c>
       <c r="G925" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -33651,10 +33687,10 @@
         <v>925</v>
       </c>
       <c r="E926" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="F926" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="G926" t="n">
         <v>1</v>
@@ -33680,10 +33716,10 @@
         <v>926</v>
       </c>
       <c r="E927" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="F927" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="G927" t="n">
         <v>1</v>
@@ -33709,13 +33745,13 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="F928" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="G928" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H928" t="s">
         <v>4</v>
@@ -33738,10 +33774,10 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="F929" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="G929" t="n">
         <v>1</v>
@@ -33767,13 +33803,13 @@
         <v>929</v>
       </c>
       <c r="E930" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="F930" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="G930" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H930" t="s">
         <v>4</v>
@@ -33796,13 +33832,13 @@
         <v>930</v>
       </c>
       <c r="E931" t="s">
-        <v>1727</v>
+        <v>907</v>
       </c>
       <c r="F931" t="s">
-        <v>1728</v>
+        <v>908</v>
       </c>
       <c r="G931" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H931" t="s">
         <v>4</v>
@@ -33889,7 +33925,7 @@
         <v>1734</v>
       </c>
       <c r="G934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H934" t="s">
         <v>4</v>
@@ -34063,7 +34099,7 @@
         <v>1746</v>
       </c>
       <c r="G940" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H940" t="s">
         <v>4</v>
@@ -34179,7 +34215,7 @@
         <v>1754</v>
       </c>
       <c r="G944" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H944" t="s">
         <v>4</v>
@@ -34353,7 +34389,7 @@
         <v>1766</v>
       </c>
       <c r="G950" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H950" t="s">
         <v>4</v>
@@ -34440,7 +34476,7 @@
         <v>1772</v>
       </c>
       <c r="G953" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H953" t="s">
         <v>4</v>
@@ -34643,7 +34679,7 @@
         <v>1786</v>
       </c>
       <c r="G960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H960" t="s">
         <v>4</v>
@@ -34672,7 +34708,7 @@
         <v>1788</v>
       </c>
       <c r="G961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H961" t="s">
         <v>4</v>
@@ -34701,7 +34737,7 @@
         <v>1790</v>
       </c>
       <c r="G962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H962" t="s">
         <v>4</v>
@@ -34730,7 +34766,7 @@
         <v>1792</v>
       </c>
       <c r="G963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H963" t="s">
         <v>4</v>
@@ -34788,7 +34824,7 @@
         <v>1796</v>
       </c>
       <c r="G965" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H965" t="s">
         <v>4</v>
@@ -34817,7 +34853,7 @@
         <v>1798</v>
       </c>
       <c r="G966" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H966" t="s">
         <v>4</v>
@@ -34846,7 +34882,7 @@
         <v>1800</v>
       </c>
       <c r="G967" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H967" t="s">
         <v>4</v>
@@ -34904,7 +34940,7 @@
         <v>1804</v>
       </c>
       <c r="G969" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H969" t="s">
         <v>4</v>
@@ -34962,7 +34998,7 @@
         <v>1808</v>
       </c>
       <c r="G971" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H971" t="s">
         <v>4</v>
@@ -34991,7 +35027,7 @@
         <v>1810</v>
       </c>
       <c r="G972" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H972" t="s">
         <v>4</v>
@@ -35020,7 +35056,7 @@
         <v>1812</v>
       </c>
       <c r="G973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H973" t="s">
         <v>4</v>
@@ -35049,7 +35085,7 @@
         <v>1814</v>
       </c>
       <c r="G974" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H974" t="s">
         <v>4</v>
@@ -35107,7 +35143,7 @@
         <v>1818</v>
       </c>
       <c r="G976" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H976" t="s">
         <v>4</v>
@@ -35136,7 +35172,7 @@
         <v>1820</v>
       </c>
       <c r="G977" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H977" t="s">
         <v>4</v>
@@ -35165,7 +35201,7 @@
         <v>1822</v>
       </c>
       <c r="G978" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H978" t="s">
         <v>4</v>
@@ -35194,7 +35230,7 @@
         <v>1824</v>
       </c>
       <c r="G979" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H979" t="s">
         <v>4</v>
@@ -35223,7 +35259,7 @@
         <v>1826</v>
       </c>
       <c r="G980" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H980" t="s">
         <v>4</v>
@@ -35368,7 +35404,7 @@
         <v>1836</v>
       </c>
       <c r="G985" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H985" t="s">
         <v>4</v>
@@ -35397,7 +35433,7 @@
         <v>1838</v>
       </c>
       <c r="G986" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H986" t="s">
         <v>4</v>
@@ -35455,7 +35491,7 @@
         <v>1842</v>
       </c>
       <c r="G988" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H988" t="s">
         <v>4</v>
@@ -35513,7 +35549,7 @@
         <v>1846</v>
       </c>
       <c r="G990" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H990" t="s">
         <v>4</v>
@@ -35542,7 +35578,7 @@
         <v>1848</v>
       </c>
       <c r="G991" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H991" t="s">
         <v>4</v>
@@ -35629,7 +35665,7 @@
         <v>1854</v>
       </c>
       <c r="G994" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H994" t="s">
         <v>4</v>
@@ -35687,7 +35723,7 @@
         <v>1858</v>
       </c>
       <c r="G996" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H996" t="s">
         <v>4</v>
@@ -35774,7 +35810,7 @@
         <v>1864</v>
       </c>
       <c r="G999" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H999" t="s">
         <v>4</v>
@@ -35861,7 +35897,7 @@
         <v>1870</v>
       </c>
       <c r="G1002" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1002" t="s">
         <v>4</v>
@@ -35890,7 +35926,7 @@
         <v>1872</v>
       </c>
       <c r="G1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1003" t="s">
         <v>4</v>
@@ -35919,7 +35955,7 @@
         <v>1874</v>
       </c>
       <c r="G1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1004" t="s">
         <v>4</v>
@@ -35948,7 +35984,7 @@
         <v>1876</v>
       </c>
       <c r="G1005" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1005" t="s">
         <v>4</v>
@@ -35977,7 +36013,7 @@
         <v>1878</v>
       </c>
       <c r="G1006" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1006" t="s">
         <v>4</v>
@@ -36064,7 +36100,7 @@
         <v>1884</v>
       </c>
       <c r="G1009" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1009" t="s">
         <v>4</v>
@@ -36093,7 +36129,7 @@
         <v>1886</v>
       </c>
       <c r="G1010" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1010" t="s">
         <v>4</v>
@@ -36122,7 +36158,7 @@
         <v>1888</v>
       </c>
       <c r="G1011" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1011" t="s">
         <v>4</v>
@@ -36151,7 +36187,7 @@
         <v>1890</v>
       </c>
       <c r="G1012" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1012" t="s">
         <v>4</v>
@@ -36238,7 +36274,7 @@
         <v>1896</v>
       </c>
       <c r="G1015" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1015" t="s">
         <v>4</v>
@@ -36296,7 +36332,7 @@
         <v>1900</v>
       </c>
       <c r="G1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1017" t="s">
         <v>4</v>
@@ -36383,7 +36419,7 @@
         <v>1906</v>
       </c>
       <c r="G1020" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1020" t="s">
         <v>4</v>
@@ -36528,7 +36564,7 @@
         <v>1916</v>
       </c>
       <c r="G1025" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1025" t="s">
         <v>4</v>
@@ -36557,7 +36593,7 @@
         <v>1918</v>
       </c>
       <c r="G1026" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1026" t="s">
         <v>4</v>
@@ -36702,7 +36738,7 @@
         <v>1928</v>
       </c>
       <c r="G1031" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1031" t="s">
         <v>4</v>
@@ -36760,7 +36796,7 @@
         <v>1932</v>
       </c>
       <c r="G1033" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1033" t="s">
         <v>4</v>
@@ -36841,10 +36877,10 @@
         <v>1035</v>
       </c>
       <c r="E1036" t="s">
-        <v>1579</v>
+        <v>1937</v>
       </c>
       <c r="F1036" t="s">
-        <v>1580</v>
+        <v>1938</v>
       </c>
       <c r="G1036" t="n">
         <v>1</v>
@@ -36870,10 +36906,10 @@
         <v>1036</v>
       </c>
       <c r="E1037" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="F1037" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="G1037" t="n">
         <v>1</v>
@@ -36899,13 +36935,13 @@
         <v>1037</v>
       </c>
       <c r="E1038" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="F1038" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="G1038" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1038" t="s">
         <v>4</v>
@@ -36928,10 +36964,10 @@
         <v>1038</v>
       </c>
       <c r="E1039" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="F1039" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="G1039" t="n">
         <v>1</v>
@@ -36957,13 +36993,13 @@
         <v>1039</v>
       </c>
       <c r="E1040" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="F1040" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="G1040" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1040" t="s">
         <v>4</v>
@@ -36986,10 +37022,10 @@
         <v>1040</v>
       </c>
       <c r="E1041" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="F1041" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="G1041" t="n">
         <v>1</v>
@@ -37015,10 +37051,10 @@
         <v>1041</v>
       </c>
       <c r="E1042" t="s">
-        <v>1947</v>
+        <v>1591</v>
       </c>
       <c r="F1042" t="s">
-        <v>1948</v>
+        <v>1592</v>
       </c>
       <c r="G1042" t="n">
         <v>1</v>
@@ -37079,7 +37115,7 @@
         <v>1952</v>
       </c>
       <c r="G1044" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1044" t="s">
         <v>4</v>
@@ -37137,7 +37173,7 @@
         <v>1956</v>
       </c>
       <c r="G1046" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1046" t="s">
         <v>4</v>
@@ -37166,7 +37202,7 @@
         <v>1958</v>
       </c>
       <c r="G1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1047" t="s">
         <v>4</v>
@@ -37224,7 +37260,7 @@
         <v>1962</v>
       </c>
       <c r="G1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1049" t="s">
         <v>4</v>
@@ -37369,7 +37405,7 @@
         <v>1972</v>
       </c>
       <c r="G1054" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1054" t="s">
         <v>4</v>
@@ -37392,10 +37428,10 @@
         <v>1054</v>
       </c>
       <c r="E1055" t="s">
-        <v>575</v>
+        <v>1973</v>
       </c>
       <c r="F1055" t="s">
-        <v>576</v>
+        <v>1974</v>
       </c>
       <c r="G1055" t="n">
         <v>2</v>
@@ -37421,10 +37457,10 @@
         <v>1055</v>
       </c>
       <c r="E1056" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="F1056" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="G1056" t="n">
         <v>1</v>
@@ -37450,13 +37486,13 @@
         <v>1056</v>
       </c>
       <c r="E1057" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="F1057" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="G1057" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1057" t="s">
         <v>4</v>
@@ -37479,10 +37515,10 @@
         <v>1057</v>
       </c>
       <c r="E1058" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="F1058" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="G1058" t="n">
         <v>1</v>
@@ -37508,13 +37544,13 @@
         <v>1058</v>
       </c>
       <c r="E1059" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="F1059" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="G1059" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1059" t="s">
         <v>4</v>
@@ -37537,10 +37573,10 @@
         <v>1059</v>
       </c>
       <c r="E1060" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="F1060" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="G1060" t="n">
         <v>2</v>
@@ -37566,13 +37602,13 @@
         <v>1060</v>
       </c>
       <c r="E1061" t="s">
-        <v>1983</v>
+        <v>575</v>
       </c>
       <c r="F1061" t="s">
-        <v>1984</v>
+        <v>576</v>
       </c>
       <c r="G1061" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1061" t="s">
         <v>4</v>
@@ -37630,7 +37666,7 @@
         <v>1988</v>
       </c>
       <c r="G1063" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1063" t="s">
         <v>4</v>
@@ -37717,7 +37753,7 @@
         <v>1994</v>
       </c>
       <c r="G1066" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1066" t="s">
         <v>4</v>
@@ -37827,10 +37863,10 @@
         <v>1069</v>
       </c>
       <c r="E1070" t="s">
-        <v>1797</v>
+        <v>2001</v>
       </c>
       <c r="F1070" t="s">
-        <v>1798</v>
+        <v>2002</v>
       </c>
       <c r="G1070" t="n">
         <v>1</v>
@@ -37856,10 +37892,10 @@
         <v>1070</v>
       </c>
       <c r="E1071" t="s">
-        <v>1807</v>
+        <v>2003</v>
       </c>
       <c r="F1071" t="s">
-        <v>1808</v>
+        <v>2004</v>
       </c>
       <c r="G1071" t="n">
         <v>1</v>
@@ -37885,13 +37921,13 @@
         <v>1071</v>
       </c>
       <c r="E1072" t="s">
-        <v>1799</v>
+        <v>2005</v>
       </c>
       <c r="F1072" t="s">
-        <v>1800</v>
+        <v>2006</v>
       </c>
       <c r="G1072" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1072" t="s">
         <v>4</v>
@@ -37914,10 +37950,10 @@
         <v>1072</v>
       </c>
       <c r="E1073" t="s">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="F1073" t="s">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="G1073" t="n">
         <v>1</v>
@@ -37943,13 +37979,13 @@
         <v>1073</v>
       </c>
       <c r="E1074" t="s">
-        <v>1475</v>
+        <v>2009</v>
       </c>
       <c r="F1074" t="s">
-        <v>1476</v>
+        <v>2010</v>
       </c>
       <c r="G1074" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1074" t="s">
         <v>4</v>
@@ -37972,10 +38008,10 @@
         <v>1074</v>
       </c>
       <c r="E1075" t="s">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="F1075" t="s">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="G1075" t="n">
         <v>1</v>
@@ -38001,10 +38037,10 @@
         <v>1075</v>
       </c>
       <c r="E1076" t="s">
-        <v>2005</v>
+        <v>1809</v>
       </c>
       <c r="F1076" t="s">
-        <v>2006</v>
+        <v>1810</v>
       </c>
       <c r="G1076" t="n">
         <v>1</v>
@@ -38030,10 +38066,10 @@
         <v>1076</v>
       </c>
       <c r="E1077" t="s">
-        <v>1911</v>
+        <v>1819</v>
       </c>
       <c r="F1077" t="s">
-        <v>1912</v>
+        <v>1820</v>
       </c>
       <c r="G1077" t="n">
         <v>1</v>
@@ -38059,10 +38095,10 @@
         <v>1077</v>
       </c>
       <c r="E1078" t="s">
-        <v>2007</v>
+        <v>1811</v>
       </c>
       <c r="F1078" t="s">
-        <v>2008</v>
+        <v>1812</v>
       </c>
       <c r="G1078" t="n">
         <v>1</v>
@@ -38088,10 +38124,10 @@
         <v>1078</v>
       </c>
       <c r="E1079" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F1079" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="G1079" t="n">
         <v>1</v>
@@ -38117,13 +38153,13 @@
         <v>1079</v>
       </c>
       <c r="E1080" t="s">
-        <v>2011</v>
+        <v>1485</v>
       </c>
       <c r="F1080" t="s">
-        <v>2012</v>
+        <v>1486</v>
       </c>
       <c r="G1080" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1080" t="s">
         <v>4</v>
@@ -38146,10 +38182,10 @@
         <v>1080</v>
       </c>
       <c r="E1081" t="s">
-        <v>1953</v>
+        <v>2015</v>
       </c>
       <c r="F1081" t="s">
-        <v>1954</v>
+        <v>2016</v>
       </c>
       <c r="G1081" t="n">
         <v>1</v>
@@ -38175,10 +38211,10 @@
         <v>1081</v>
       </c>
       <c r="E1082" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F1082" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G1082" t="n">
         <v>1</v>
@@ -38204,10 +38240,10 @@
         <v>1082</v>
       </c>
       <c r="E1083" t="s">
-        <v>2015</v>
+        <v>1923</v>
       </c>
       <c r="F1083" t="s">
-        <v>2016</v>
+        <v>1924</v>
       </c>
       <c r="G1083" t="n">
         <v>1</v>
@@ -38233,13 +38269,13 @@
         <v>1083</v>
       </c>
       <c r="E1084" t="s">
-        <v>1557</v>
+        <v>2019</v>
       </c>
       <c r="F1084" t="s">
-        <v>1558</v>
+        <v>2020</v>
       </c>
       <c r="G1084" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1084" t="s">
         <v>4</v>
@@ -38262,10 +38298,10 @@
         <v>1084</v>
       </c>
       <c r="E1085" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="F1085" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G1085" t="n">
         <v>1</v>
@@ -38291,10 +38327,10 @@
         <v>1085</v>
       </c>
       <c r="E1086" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="F1086" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="G1086" t="n">
         <v>1</v>
@@ -38320,10 +38356,10 @@
         <v>1086</v>
       </c>
       <c r="E1087" t="s">
-        <v>2021</v>
+        <v>1965</v>
       </c>
       <c r="F1087" t="s">
-        <v>2022</v>
+        <v>1966</v>
       </c>
       <c r="G1087" t="n">
         <v>1</v>
@@ -38349,10 +38385,10 @@
         <v>1087</v>
       </c>
       <c r="E1088" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="F1088" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="G1088" t="n">
         <v>1</v>
@@ -38378,10 +38414,10 @@
         <v>1088</v>
       </c>
       <c r="E1089" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="F1089" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="G1089" t="n">
         <v>1</v>
@@ -38407,13 +38443,13 @@
         <v>1089</v>
       </c>
       <c r="E1090" t="s">
-        <v>2027</v>
+        <v>1569</v>
       </c>
       <c r="F1090" t="s">
-        <v>2028</v>
+        <v>1570</v>
       </c>
       <c r="G1090" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1090" t="s">
         <v>4</v>
@@ -38442,7 +38478,7 @@
         <v>2030</v>
       </c>
       <c r="G1091" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="H1091" t="s">
         <v>4</v>
@@ -38471,7 +38507,7 @@
         <v>2032</v>
       </c>
       <c r="G1092" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1092" t="s">
         <v>4</v>
@@ -38494,10 +38530,10 @@
         <v>1092</v>
       </c>
       <c r="E1093" t="s">
-        <v>763</v>
+        <v>2033</v>
       </c>
       <c r="F1093" t="s">
-        <v>764</v>
+        <v>2034</v>
       </c>
       <c r="G1093" t="n">
         <v>1</v>
@@ -38523,13 +38559,13 @@
         <v>1093</v>
       </c>
       <c r="E1094" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="F1094" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="G1094" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1094" t="s">
         <v>4</v>
@@ -38552,10 +38588,10 @@
         <v>1094</v>
       </c>
       <c r="E1095" t="s">
-        <v>403</v>
+        <v>2037</v>
       </c>
       <c r="F1095" t="s">
-        <v>404</v>
+        <v>2038</v>
       </c>
       <c r="G1095" t="n">
         <v>1</v>
@@ -38581,10 +38617,10 @@
         <v>1095</v>
       </c>
       <c r="E1096" t="s">
-        <v>51</v>
+        <v>2039</v>
       </c>
       <c r="F1096" t="s">
-        <v>52</v>
+        <v>2040</v>
       </c>
       <c r="G1096" t="n">
         <v>1</v>
@@ -38610,13 +38646,13 @@
         <v>1096</v>
       </c>
       <c r="E1097" t="s">
-        <v>2035</v>
+        <v>2041</v>
       </c>
       <c r="F1097" t="s">
-        <v>2036</v>
+        <v>2042</v>
       </c>
       <c r="G1097" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="H1097" t="s">
         <v>4</v>
@@ -38639,13 +38675,13 @@
         <v>1097</v>
       </c>
       <c r="E1098" t="s">
-        <v>2037</v>
+        <v>2043</v>
       </c>
       <c r="F1098" t="s">
-        <v>2038</v>
+        <v>2044</v>
       </c>
       <c r="G1098" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1098" t="s">
         <v>4</v>
@@ -38668,10 +38704,10 @@
         <v>1098</v>
       </c>
       <c r="E1099" t="s">
-        <v>2039</v>
+        <v>763</v>
       </c>
       <c r="F1099" t="s">
-        <v>2040</v>
+        <v>764</v>
       </c>
       <c r="G1099" t="n">
         <v>1</v>
@@ -38697,13 +38733,13 @@
         <v>1099</v>
       </c>
       <c r="E1100" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="F1100" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="G1100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1100" t="s">
         <v>4</v>
@@ -38726,10 +38762,10 @@
         <v>1100</v>
       </c>
       <c r="E1101" t="s">
-        <v>2043</v>
+        <v>403</v>
       </c>
       <c r="F1101" t="s">
-        <v>2044</v>
+        <v>404</v>
       </c>
       <c r="G1101" t="n">
         <v>1</v>
@@ -38755,10 +38791,10 @@
         <v>1101</v>
       </c>
       <c r="E1102" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F1102" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G1102" t="n">
         <v>1</v>
@@ -38784,10 +38820,10 @@
         <v>1102</v>
       </c>
       <c r="E1103" t="s">
-        <v>55</v>
+        <v>2047</v>
       </c>
       <c r="F1103" t="s">
-        <v>56</v>
+        <v>2048</v>
       </c>
       <c r="G1103" t="n">
         <v>1</v>
@@ -38813,10 +38849,10 @@
         <v>1103</v>
       </c>
       <c r="E1104" t="s">
-        <v>55</v>
+        <v>2049</v>
       </c>
       <c r="F1104" t="s">
-        <v>56</v>
+        <v>2050</v>
       </c>
       <c r="G1104" t="n">
         <v>1</v>
@@ -38842,13 +38878,13 @@
         <v>1104</v>
       </c>
       <c r="E1105" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="F1105" t="s">
-        <v>2046</v>
+        <v>2052</v>
       </c>
       <c r="G1105" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1105" t="s">
         <v>4</v>
@@ -38871,13 +38907,13 @@
         <v>1105</v>
       </c>
       <c r="E1106" t="s">
-        <v>53</v>
+        <v>2053</v>
       </c>
       <c r="F1106" t="s">
-        <v>54</v>
+        <v>2054</v>
       </c>
       <c r="G1106" t="n">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="H1106" t="s">
         <v>4</v>
@@ -38900,10 +38936,10 @@
         <v>1106</v>
       </c>
       <c r="E1107" t="s">
-        <v>2047</v>
+        <v>2055</v>
       </c>
       <c r="F1107" t="s">
-        <v>2048</v>
+        <v>2056</v>
       </c>
       <c r="G1107" t="n">
         <v>1</v>
@@ -38929,13 +38965,13 @@
         <v>1107</v>
       </c>
       <c r="E1108" t="s">
-        <v>2049</v>
+        <v>55</v>
       </c>
       <c r="F1108" t="s">
-        <v>2050</v>
+        <v>56</v>
       </c>
       <c r="G1108" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1108" t="s">
         <v>4</v>
@@ -38958,13 +38994,13 @@
         <v>1108</v>
       </c>
       <c r="E1109" t="s">
-        <v>2051</v>
+        <v>55</v>
       </c>
       <c r="F1109" t="s">
-        <v>2052</v>
+        <v>56</v>
       </c>
       <c r="G1109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1109" t="s">
         <v>4</v>
@@ -38987,13 +39023,13 @@
         <v>1109</v>
       </c>
       <c r="E1110" t="s">
-        <v>2053</v>
+        <v>55</v>
       </c>
       <c r="F1110" t="s">
-        <v>2054</v>
+        <v>56</v>
       </c>
       <c r="G1110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1110" t="s">
         <v>4</v>
@@ -39016,13 +39052,13 @@
         <v>1110</v>
       </c>
       <c r="E1111" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="F1111" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="G1111" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1111" t="s">
         <v>4</v>
@@ -39045,13 +39081,13 @@
         <v>1111</v>
       </c>
       <c r="E1112" t="s">
-        <v>2057</v>
+        <v>53</v>
       </c>
       <c r="F1112" t="s">
-        <v>2058</v>
+        <v>54</v>
       </c>
       <c r="G1112" t="n">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="H1112" t="s">
         <v>4</v>
@@ -39103,13 +39139,13 @@
         <v>1113</v>
       </c>
       <c r="E1114" t="s">
-        <v>579</v>
+        <v>2061</v>
       </c>
       <c r="F1114" t="s">
-        <v>580</v>
+        <v>2062</v>
       </c>
       <c r="G1114" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1114" t="s">
         <v>4</v>
@@ -39132,13 +39168,13 @@
         <v>1114</v>
       </c>
       <c r="E1115" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="F1115" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="G1115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1115" t="s">
         <v>4</v>
@@ -39161,13 +39197,13 @@
         <v>1115</v>
       </c>
       <c r="E1116" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="F1116" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="G1116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1116" t="s">
         <v>4</v>
@@ -39190,13 +39226,13 @@
         <v>1116</v>
       </c>
       <c r="E1117" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="F1117" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="G1117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1117" t="s">
         <v>4</v>
@@ -39219,13 +39255,13 @@
         <v>1117</v>
       </c>
       <c r="E1118" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="F1118" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="G1118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1118" t="s">
         <v>4</v>
@@ -39248,10 +39284,10 @@
         <v>1118</v>
       </c>
       <c r="E1119" t="s">
-        <v>793</v>
+        <v>2071</v>
       </c>
       <c r="F1119" t="s">
-        <v>794</v>
+        <v>2072</v>
       </c>
       <c r="G1119" t="n">
         <v>1</v>
@@ -39277,13 +39313,13 @@
         <v>1119</v>
       </c>
       <c r="E1120" t="s">
-        <v>2069</v>
+        <v>579</v>
       </c>
       <c r="F1120" t="s">
-        <v>2070</v>
+        <v>580</v>
       </c>
       <c r="G1120" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1120" t="s">
         <v>4</v>
@@ -39306,10 +39342,10 @@
         <v>1120</v>
       </c>
       <c r="E1121" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="F1121" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="G1121" t="n">
         <v>1</v>
@@ -39335,13 +39371,13 @@
         <v>1121</v>
       </c>
       <c r="E1122" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="F1122" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="G1122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1122" t="s">
         <v>4</v>
@@ -39364,10 +39400,10 @@
         <v>1122</v>
       </c>
       <c r="E1123" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="F1123" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="G1123" t="n">
         <v>2</v>
@@ -39393,10 +39429,10 @@
         <v>1123</v>
       </c>
       <c r="E1124" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="F1124" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="G1124" t="n">
         <v>1</v>
@@ -39422,13 +39458,13 @@
         <v>1124</v>
       </c>
       <c r="E1125" t="s">
-        <v>2079</v>
+        <v>793</v>
       </c>
       <c r="F1125" t="s">
-        <v>2080</v>
+        <v>794</v>
       </c>
       <c r="G1125" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1125" t="s">
         <v>4</v>
@@ -39457,7 +39493,7 @@
         <v>2082</v>
       </c>
       <c r="G1126" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H1126" t="s">
         <v>4</v>
@@ -39515,7 +39551,7 @@
         <v>2086</v>
       </c>
       <c r="G1128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1128" t="s">
         <v>4</v>
@@ -39544,7 +39580,7 @@
         <v>2088</v>
       </c>
       <c r="G1129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1129" t="s">
         <v>4</v>
@@ -39602,7 +39638,7 @@
         <v>2092</v>
       </c>
       <c r="G1131" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1131" t="s">
         <v>4</v>
@@ -39631,7 +39667,7 @@
         <v>2094</v>
       </c>
       <c r="G1132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1132" t="s">
         <v>4</v>
@@ -39660,7 +39696,7 @@
         <v>2096</v>
       </c>
       <c r="G1133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1133" t="s">
         <v>4</v>
@@ -39689,7 +39725,7 @@
         <v>2098</v>
       </c>
       <c r="G1134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1134" t="s">
         <v>4</v>
@@ -39718,7 +39754,7 @@
         <v>2100</v>
       </c>
       <c r="G1135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1135" t="s">
         <v>4</v>
@@ -39741,10 +39777,10 @@
         <v>1135</v>
       </c>
       <c r="E1136" t="s">
-        <v>2085</v>
+        <v>2101</v>
       </c>
       <c r="F1136" t="s">
-        <v>2086</v>
+        <v>2102</v>
       </c>
       <c r="G1136" t="n">
         <v>1</v>
@@ -39770,10 +39806,10 @@
         <v>1136</v>
       </c>
       <c r="E1137" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="F1137" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="G1137" t="n">
         <v>1</v>
@@ -39799,13 +39835,13 @@
         <v>1137</v>
       </c>
       <c r="E1138" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="F1138" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="G1138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1138" t="s">
         <v>4</v>
@@ -39828,13 +39864,13 @@
         <v>1138</v>
       </c>
       <c r="E1139" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="F1139" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="G1139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1139" t="s">
         <v>4</v>
@@ -39857,10 +39893,10 @@
         <v>1139</v>
       </c>
       <c r="E1140" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="F1140" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="G1140" t="n">
         <v>1</v>
@@ -39886,13 +39922,13 @@
         <v>1140</v>
       </c>
       <c r="E1141" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="F1141" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="G1141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1141" t="s">
         <v>4</v>
@@ -39915,10 +39951,10 @@
         <v>1141</v>
       </c>
       <c r="E1142" t="s">
-        <v>1475</v>
+        <v>2097</v>
       </c>
       <c r="F1142" t="s">
-        <v>1476</v>
+        <v>2098</v>
       </c>
       <c r="G1142" t="n">
         <v>1</v>
@@ -39944,10 +39980,10 @@
         <v>1142</v>
       </c>
       <c r="E1143" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="F1143" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="G1143" t="n">
         <v>1</v>
@@ -39973,13 +40009,13 @@
         <v>1143</v>
       </c>
       <c r="E1144" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="F1144" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="G1144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1144" t="s">
         <v>4</v>
@@ -40002,10 +40038,10 @@
         <v>1144</v>
       </c>
       <c r="E1145" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="F1145" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="G1145" t="n">
         <v>1</v>
@@ -40031,10 +40067,10 @@
         <v>1145</v>
       </c>
       <c r="E1146" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="F1146" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="G1146" t="n">
         <v>1</v>
@@ -40060,10 +40096,10 @@
         <v>1146</v>
       </c>
       <c r="E1147" t="s">
-        <v>549</v>
+        <v>2121</v>
       </c>
       <c r="F1147" t="s">
-        <v>550</v>
+        <v>2122</v>
       </c>
       <c r="G1147" t="n">
         <v>1</v>
@@ -40089,10 +40125,10 @@
         <v>1147</v>
       </c>
       <c r="E1148" t="s">
-        <v>2119</v>
+        <v>1485</v>
       </c>
       <c r="F1148" t="s">
-        <v>2120</v>
+        <v>1486</v>
       </c>
       <c r="G1148" t="n">
         <v>1</v>
@@ -40118,10 +40154,10 @@
         <v>1148</v>
       </c>
       <c r="E1149" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="F1149" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="G1149" t="n">
         <v>1</v>
@@ -40147,10 +40183,10 @@
         <v>1149</v>
       </c>
       <c r="E1150" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="F1150" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="G1150" t="n">
         <v>1</v>
@@ -40176,10 +40212,10 @@
         <v>1150</v>
       </c>
       <c r="E1151" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="F1151" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="G1151" t="n">
         <v>1</v>
@@ -40205,10 +40241,10 @@
         <v>1151</v>
       </c>
       <c r="E1152" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="F1152" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="G1152" t="n">
         <v>1</v>
@@ -40234,10 +40270,10 @@
         <v>1152</v>
       </c>
       <c r="E1153" t="s">
-        <v>2129</v>
+        <v>549</v>
       </c>
       <c r="F1153" t="s">
-        <v>2130</v>
+        <v>550</v>
       </c>
       <c r="G1153" t="n">
         <v>1</v>
@@ -40298,7 +40334,7 @@
         <v>2134</v>
       </c>
       <c r="G1155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1155" t="s">
         <v>4</v>
@@ -40472,7 +40508,7 @@
         <v>2146</v>
       </c>
       <c r="G1161" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H1161" t="s">
         <v>4</v>
@@ -40495,10 +40531,10 @@
         <v>1161</v>
       </c>
       <c r="E1162" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="F1162" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="G1162" t="n">
         <v>1</v>
@@ -40507,6 +40543,238 @@
         <v>4</v>
       </c>
       <c r="I1162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1162</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>1163</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>1164</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9">
+      <c r="A1166" s="1" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9">
+      <c r="A1167" s="1" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>1166</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9">
+      <c r="A1168" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>1167</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9">
+      <c r="A1169" s="1" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>1168</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>2158</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9">
+      <c r="A1170" s="1" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>1169</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1170" t="n">
         <v>3</v>
       </c>
     </row>
